--- a/Proyecto Interno/Time-series/mapeo_retail_sipsa.xlsx
+++ b/Proyecto Interno/Time-series/mapeo_retail_sipsa.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portatil\Desktop\Least-cost-diets-and-affordability\Proyecto Interno\Time-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3AD4F32-0998-40BA-B704-BD8101A804AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B350617-12E7-48A3-8EB9-7DC4E59CA7E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="12000" xr2:uid="{F9B8AFAB-AE7C-4ECE-8124-D73A073E0F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$276</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="346">
   <si>
     <t>retail</t>
   </si>
@@ -976,6 +979,95 @@
   </si>
   <si>
     <t>Zanahoria larga vida</t>
+  </si>
+  <si>
+    <t>Aceite vegetal mezcla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Azúcar sulfitada</t>
+  </si>
+  <si>
+    <t>Banano Urabá</t>
+  </si>
+  <si>
+    <t>Banano bocadillo</t>
+  </si>
+  <si>
+    <t>Cebolla cabezona roja importada</t>
+  </si>
+  <si>
+    <t>Cebolla cabezona roja ocañera</t>
+  </si>
+  <si>
+    <t>Guayaba manzana</t>
+  </si>
+  <si>
+    <t>Guayaba pera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Limón mandarino</t>
+  </si>
+  <si>
+    <t>Maracuyá antioqueño</t>
+  </si>
+  <si>
+    <t>Maracuyá huilense</t>
+  </si>
+  <si>
+    <t>Maracuyá valluno</t>
+  </si>
+  <si>
+    <t>Plátano comino</t>
+  </si>
+  <si>
+    <t>Plátano dominico verde</t>
+  </si>
+  <si>
+    <t>Pollo entero congelado con vísceras</t>
+  </si>
+  <si>
+    <t>Pollo entero congelado sin vísceras</t>
+  </si>
+  <si>
+    <t>Habichuela larga</t>
+  </si>
+  <si>
+    <t>Guayaba agria</t>
+  </si>
+  <si>
+    <t>Guayaba Atlántico</t>
+  </si>
+  <si>
+    <t>Lenteja nacional</t>
+  </si>
+  <si>
+    <t>Guayaba pera valluna</t>
+  </si>
+  <si>
+    <t>Cebolla cabezona roja</t>
+  </si>
+  <si>
+    <t>Cebolla cabezona blanca ecuatoriana</t>
+  </si>
+  <si>
+    <t>Papa criolla para lavar</t>
+  </si>
+  <si>
+    <t>Plátano hartón verde venezolano</t>
+  </si>
+  <si>
+    <t>Cebolla cabezona blanca peruana</t>
+  </si>
+  <si>
+    <t>Limón común valluno</t>
+  </si>
+  <si>
+    <t>Limón común ecuatoriano</t>
+  </si>
+  <si>
+    <t>Maracuyá santandereano</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1099,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1030,16 +1122,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1356,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0188B28-EF9D-41DB-9815-3D89235996E0}">
-  <dimension ref="A1:B247"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="A231" sqref="A231"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,29 +1498,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1419,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1427,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1435,23 +1544,23 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1459,15 +1568,15 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1475,171 +1584,171 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>116</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1647,87 +1756,87 @@
         <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,7 +1844,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +1852,7 @@
         <v>25</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1751,7 +1860,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +1868,7 @@
         <v>25</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,7 +1876,7 @@
         <v>25</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1775,7 +1884,7 @@
         <v>25</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1783,7 +1892,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +1900,7 @@
         <v>25</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1799,7 +1908,7 @@
         <v>25</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +1916,7 @@
         <v>25</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +1924,7 @@
         <v>25</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1823,7 +1932,7 @@
         <v>25</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1831,205 +1940,205 @@
         <v>25</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>153</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>157</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>158</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>159</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>169</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2037,7 +2146,7 @@
         <v>35</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2045,7 +2154,7 @@
         <v>35</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,7 +2162,7 @@
         <v>35</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2061,7 +2170,7 @@
         <v>35</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2069,1246 +2178,1477 @@
         <v>35</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B90" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>184</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>188</v>
+        <v>39</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>189</v>
+        <v>323</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>190</v>
+        <v>335</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>191</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B107" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B108" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B110" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>204</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B127" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B128" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>208</v>
+        <v>336</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>212</v>
+        <v>52</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B134" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B135" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B143" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B144" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B145" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>220</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>221</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>233</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>234</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>242</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>243</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>297</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B225" s="2"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B240" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B269" s="2"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B274" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>316</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B276" xr:uid="{A49E52AF-D615-4580-8F94-DDCBB3E7D289}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Proyecto Interno/Time-series/mapeo_retail_sipsa.xlsx
+++ b/Proyecto Interno/Time-series/mapeo_retail_sipsa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portatil\Desktop\Least-cost-diets-and-affordability\Proyecto Interno\Time-series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/Time-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B350617-12E7-48A3-8EB9-7DC4E59CA7E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8B350617-12E7-48A3-8EB9-7DC4E59CA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FFB7094-3A07-4A8E-86F2-355C22193641}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="12000" xr2:uid="{F9B8AFAB-AE7C-4ECE-8124-D73A073E0F9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9B8AFAB-AE7C-4ECE-8124-D73A073E0F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1142,13 +1142,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1169,9 +1169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1209,7 +1209,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1315,7 +1315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1457,7 +1457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1465,19 +1465,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0188B28-EF9D-41DB-9815-3D89235996E0}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
       <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1509,13 +1510,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1595,13 +1596,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1609,13 +1610,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
@@ -1735,7 +1736,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>25</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>25</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>25</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>25</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>25</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>25</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>25</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>25</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>25</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>25</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>26</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>27</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>27</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>27</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>27</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>27</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>27</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>27</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>28</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>28</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>28</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>28</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>28</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>29</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>30</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>31</v>
       </c>
@@ -2119,13 +2120,13 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>33</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>34</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>35</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>35</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>35</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>35</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>35</v>
       </c>
@@ -2181,7 +2182,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>35</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>35</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>35</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>35</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>35</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>35</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>35</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>35</v>
       </c>
@@ -2253,13 +2254,13 @@
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>37</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>38</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>39</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>39</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>39</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>39</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>39</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>39</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>40</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>41</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>41</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>42</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>43</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>44</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>44</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>44</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>44</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>44</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>44</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>44</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>44</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>45</v>
       </c>
@@ -2435,31 +2436,31 @@
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>50</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>50</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>51</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>51</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>52</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>52</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>52</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>52</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>52</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>53</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>54</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>54</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>55</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>55</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>55</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>55</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>55</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>55</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>55</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>55</v>
       </c>
@@ -2619,19 +2620,19 @@
         <v>207</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>58</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>58</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>58</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>58</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>59</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>59</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>59</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>59</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>59</v>
       </c>
@@ -2703,19 +2704,19 @@
         <v>345</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>62</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>63</v>
       </c>
@@ -2731,7 +2732,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>63</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>63</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>64</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>64</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>64</v>
       </c>
@@ -2771,25 +2772,25 @@
         <v>219</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>68</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>68</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>68</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>68</v>
       </c>
@@ -2821,7 +2822,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>68</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>69</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>69</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>69</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>69</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>69</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>69</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>69</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>69</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>69</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>69</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>69</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>69</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>69</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>69</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>69</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>69</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>69</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>70</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>70</v>
       </c>
@@ -2981,7 +2982,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>70</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>71</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>71</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>71</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>71</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>71</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>71</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>72</v>
       </c>
@@ -3045,13 +3046,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>74</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>74</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>74</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>74</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>74</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>74</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>74</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>74</v>
       </c>
@@ -3115,7 +3116,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>74</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>75</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>75</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>75</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>75</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>75</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>75</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>75</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>75</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>75</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>75</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>75</v>
       </c>
@@ -3211,7 +3212,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>75</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>75</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>75</v>
       </c>
@@ -3235,13 +3236,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>77</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>77</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>78</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>78</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>78</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>78</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>78</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>78</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>78</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>78</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>78</v>
       </c>
@@ -3329,7 +3330,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>78</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>79</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>79</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>79</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>79</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>79</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>79</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>79</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>80</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>80</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>80</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>80</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>81</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>82</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>82</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>82</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>82</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>82</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>83</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>84</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>84</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>85</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>85</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>85</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>85</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>85</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>85</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>85</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>85</v>
       </c>
@@ -3561,7 +3562,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>85</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>86</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>87</v>
       </c>
@@ -3585,13 +3586,13 @@
         <v>309</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>89</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>89</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>89</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>89</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>90</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>90</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>90</v>
       </c>
@@ -3648,7 +3649,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B276" xr:uid="{A49E52AF-D615-4580-8F94-DDCBB3E7D289}"/>
+  <autoFilter ref="A1:B276" xr:uid="{A49E52AF-D615-4580-8F94-DDCBB3E7D289}">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Proyecto Interno/Time-series/mapeo_retail_sipsa.xlsx
+++ b/Proyecto Interno/Time-series/mapeo_retail_sipsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/Time-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8B350617-12E7-48A3-8EB9-7DC4E59CA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FFB7094-3A07-4A8E-86F2-355C22193641}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8B350617-12E7-48A3-8EB9-7DC4E59CA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F011E1-856F-419F-BD47-AE474E7966C1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9B8AFAB-AE7C-4ECE-8124-D73A073E0F9D}"/>
   </bookViews>
@@ -1465,11 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0188B28-EF9D-41DB-9815-3D89235996E0}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:B276"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,7 +1485,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1494,7 +1493,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1516,7 +1515,7 @@
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1524,7 +1523,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1531,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1540,7 +1539,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1564,7 +1563,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1572,7 +1571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1602,7 +1601,7 @@
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1616,7 +1615,7 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1632,7 +1631,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1656,7 +1655,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -1680,7 +1679,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -1704,7 +1703,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1712,7 +1711,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1719,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1744,7 +1743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
@@ -1760,7 +1759,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -1776,7 +1775,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
@@ -1784,7 +1783,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
@@ -1792,7 +1791,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
@@ -1800,7 +1799,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -1816,7 +1815,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
@@ -1840,7 +1839,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
@@ -1848,7 +1847,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>25</v>
       </c>
@@ -1856,7 +1855,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>25</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>25</v>
       </c>
@@ -1896,7 +1895,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>25</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>25</v>
       </c>
@@ -1912,7 +1911,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -1920,7 +1919,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>25</v>
       </c>
@@ -1928,7 +1927,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>25</v>
       </c>
@@ -1944,7 +1943,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>25</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>25</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>25</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -1976,7 +1975,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>26</v>
       </c>
@@ -1984,7 +1983,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>27</v>
       </c>
@@ -1992,7 +1991,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2008,7 +2007,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>27</v>
       </c>
@@ -2016,7 +2015,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>27</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>27</v>
       </c>
@@ -2040,7 +2039,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>27</v>
       </c>
@@ -2048,7 +2047,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>27</v>
       </c>
@@ -2056,7 +2055,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>28</v>
       </c>
@@ -2064,7 +2063,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>28</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>28</v>
       </c>
@@ -2080,7 +2079,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>28</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>28</v>
       </c>
@@ -2096,7 +2095,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>29</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>30</v>
       </c>
@@ -2112,7 +2111,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>31</v>
       </c>
@@ -2126,7 +2125,7 @@
       </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>33</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>34</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>35</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>35</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>35</v>
       </c>
@@ -2166,7 +2165,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>35</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>35</v>
       </c>
@@ -2182,7 +2181,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>35</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>35</v>
       </c>
@@ -2198,7 +2197,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>35</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>35</v>
       </c>
@@ -2214,7 +2213,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>35</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>35</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>35</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>35</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>35</v>
       </c>
@@ -2260,7 +2259,7 @@
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>37</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>38</v>
       </c>
@@ -2276,7 +2275,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>39</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>39</v>
       </c>
@@ -2292,7 +2291,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>39</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>39</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>39</v>
       </c>
@@ -2316,7 +2315,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>39</v>
       </c>
@@ -2324,7 +2323,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>40</v>
       </c>
@@ -2332,7 +2331,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>41</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>41</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>42</v>
       </c>
@@ -2356,7 +2355,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>43</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>44</v>
       </c>
@@ -2372,7 +2371,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>44</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>44</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>44</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>44</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>44</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>44</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>44</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>45</v>
       </c>
@@ -2460,7 +2459,7 @@
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>50</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>50</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>51</v>
       </c>
@@ -2484,7 +2483,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>51</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>52</v>
       </c>
@@ -2500,7 +2499,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>52</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>52</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>52</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>52</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>53</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>54</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>54</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>55</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>55</v>
       </c>
@@ -2572,7 +2571,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>55</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>55</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>55</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>55</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>55</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>55</v>
       </c>
@@ -2632,7 +2631,7 @@
       </c>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>58</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>58</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>58</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>58</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>59</v>
       </c>
@@ -2672,7 +2671,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>59</v>
       </c>
@@ -2680,7 +2679,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>59</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>59</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>59</v>
       </c>
@@ -2716,7 +2715,7 @@
       </c>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>62</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>63</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>63</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>63</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>64</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>64</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>64</v>
       </c>
@@ -2790,7 +2789,7 @@
       </c>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>68</v>
       </c>
@@ -2798,7 +2797,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>68</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>68</v>
       </c>
@@ -2814,7 +2813,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>68</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>68</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>69</v>
       </c>
@@ -2838,7 +2837,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>69</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>69</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>69</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>69</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>69</v>
       </c>
@@ -2878,7 +2877,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>69</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>69</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>69</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>69</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>69</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>69</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>69</v>
       </c>
@@ -2934,7 +2933,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>69</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>69</v>
       </c>
@@ -2950,7 +2949,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>69</v>
       </c>
@@ -2958,7 +2957,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>69</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>70</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>70</v>
       </c>
@@ -2982,7 +2981,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>70</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>71</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>71</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>71</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>71</v>
       </c>
@@ -3022,7 +3021,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>71</v>
       </c>
@@ -3030,7 +3029,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>71</v>
       </c>
@@ -3038,7 +3037,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>72</v>
       </c>
@@ -3052,7 +3051,7 @@
       </c>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>74</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>74</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>74</v>
       </c>
@@ -3076,7 +3075,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>74</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>74</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>74</v>
       </c>
@@ -3100,7 +3099,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>74</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>74</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>74</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>75</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>75</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>75</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>75</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>75</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>75</v>
       </c>
@@ -3172,7 +3171,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>75</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>75</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>75</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>75</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>75</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>75</v>
       </c>
@@ -3220,7 +3219,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>75</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>75</v>
       </c>
@@ -3242,7 +3241,7 @@
       </c>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>77</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>77</v>
       </c>
@@ -3258,7 +3257,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>78</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>78</v>
       </c>
@@ -3274,7 +3273,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>78</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>78</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>78</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>78</v>
       </c>
@@ -3306,7 +3305,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>78</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>78</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>78</v>
       </c>
@@ -3330,7 +3329,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>78</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>79</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>79</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>79</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>79</v>
       </c>
@@ -3370,7 +3369,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>79</v>
       </c>
@@ -3378,7 +3377,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>79</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>79</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>80</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>80</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>80</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>80</v>
       </c>
@@ -3426,7 +3425,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>81</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>82</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>82</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>82</v>
       </c>
@@ -3458,7 +3457,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>82</v>
       </c>
@@ -3466,7 +3465,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>82</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>83</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>84</v>
       </c>
@@ -3490,7 +3489,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>84</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>85</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>85</v>
       </c>
@@ -3514,7 +3513,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>85</v>
       </c>
@@ -3522,7 +3521,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>85</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>85</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>85</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>85</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>85</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>85</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>86</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>87</v>
       </c>
@@ -3592,7 +3591,7 @@
       </c>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>89</v>
       </c>
@@ -3600,7 +3599,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>89</v>
       </c>
@@ -3608,7 +3607,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>89</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>89</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>90</v>
       </c>
@@ -3632,7 +3631,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>90</v>
       </c>
@@ -3640,7 +3639,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>90</v>
       </c>
@@ -3649,11 +3648,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B276" xr:uid="{A49E52AF-D615-4580-8F94-DDCBB3E7D289}">
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B276" xr:uid="{A49E52AF-D615-4580-8F94-DDCBB3E7D289}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Proyecto Interno/Time-series/mapeo_retail_sipsa.xlsx
+++ b/Proyecto Interno/Time-series/mapeo_retail_sipsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/Time-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8B350617-12E7-48A3-8EB9-7DC4E59CA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F011E1-856F-419F-BD47-AE474E7966C1}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{8B350617-12E7-48A3-8EB9-7DC4E59CA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8FF6AF-1091-42EF-9978-523BFE9BC29D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9B8AFAB-AE7C-4ECE-8124-D73A073E0F9D}"/>
   </bookViews>
@@ -1465,10 +1465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0188B28-EF9D-41DB-9815-3D89235996E0}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,7 +1486,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1515,7 +1516,7 @@
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1601,7 +1602,7 @@
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1615,7 +1616,7 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
@@ -1735,7 +1736,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>25</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>25</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>25</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>25</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>25</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>25</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>25</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>25</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>25</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>25</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>26</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>27</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>27</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>27</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>27</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>27</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>27</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>27</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>28</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>28</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>28</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>28</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>28</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>29</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>30</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>31</v>
       </c>
@@ -2125,7 +2126,7 @@
       </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>33</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>34</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>35</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>35</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>35</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>35</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>35</v>
       </c>
@@ -2181,7 +2182,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>35</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>35</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>35</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>35</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>35</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>35</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>35</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>35</v>
       </c>
@@ -2259,7 +2260,7 @@
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>37</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>38</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>39</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>39</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>39</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>39</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>39</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>39</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>40</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>41</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>41</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>42</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>43</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>44</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>44</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>44</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>44</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>44</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>44</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>44</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>44</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>45</v>
       </c>
@@ -2459,7 +2460,7 @@
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>50</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>50</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>51</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>51</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>52</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>52</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>52</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>52</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>52</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>53</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>54</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>54</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>55</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>55</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>55</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>55</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>55</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>55</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>55</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>55</v>
       </c>
@@ -2631,7 +2632,7 @@
       </c>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>58</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>58</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>58</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>58</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>59</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>59</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>59</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>59</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>59</v>
       </c>
@@ -2715,7 +2716,7 @@
       </c>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>62</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>63</v>
       </c>
@@ -2731,7 +2732,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>63</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>63</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>64</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>64</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>64</v>
       </c>
@@ -2789,7 +2790,7 @@
       </c>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>68</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>68</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>68</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>68</v>
       </c>
@@ -2821,7 +2822,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>68</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>69</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>69</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>69</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>69</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>69</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>69</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>69</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>69</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>69</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>69</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>69</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>69</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>69</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>69</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>69</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>69</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>69</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>70</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>70</v>
       </c>
@@ -2981,7 +2982,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>70</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>71</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>71</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>71</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>71</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>71</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>71</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>72</v>
       </c>
@@ -3051,7 +3052,7 @@
       </c>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>74</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>74</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>74</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>74</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>74</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>74</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>74</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>74</v>
       </c>
@@ -3115,7 +3116,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>74</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>75</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>75</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>75</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>75</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>75</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>75</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>75</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>75</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>75</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>75</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>75</v>
       </c>
@@ -3211,7 +3212,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>75</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>75</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>75</v>
       </c>
@@ -3241,7 +3242,7 @@
       </c>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>77</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>77</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>78</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>78</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>78</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>78</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>78</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>78</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>78</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>78</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>78</v>
       </c>
@@ -3329,7 +3330,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>78</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>79</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>79</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>79</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>79</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>79</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>79</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>79</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>80</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>80</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>80</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>80</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>81</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>82</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>82</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>82</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>82</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>82</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>83</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>84</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>84</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>85</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>85</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>85</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>85</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>85</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>85</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>85</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>85</v>
       </c>
@@ -3561,7 +3562,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>85</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>86</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>87</v>
       </c>
@@ -3591,7 +3592,7 @@
       </c>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>89</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>89</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>89</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>89</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>90</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>90</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>90</v>
       </c>
@@ -3648,7 +3649,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B276" xr:uid="{A49E52AF-D615-4580-8F94-DDCBB3E7D289}"/>
+  <autoFilter ref="A1:B276" xr:uid="{A49E52AF-D615-4580-8F94-DDCBB3E7D289}">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Proyecto Interno/Time-series/mapeo_retail_sipsa.xlsx
+++ b/Proyecto Interno/Time-series/mapeo_retail_sipsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/Time-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{8B350617-12E7-48A3-8EB9-7DC4E59CA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8FF6AF-1091-42EF-9978-523BFE9BC29D}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8B350617-12E7-48A3-8EB9-7DC4E59CA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F5E80C9-4B94-4D30-BADC-812DB9FD1C65}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9B8AFAB-AE7C-4ECE-8124-D73A073E0F9D}"/>
   </bookViews>
@@ -1166,6 +1166,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1468,8 +1472,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B276"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1510,7 +1514,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1596,7 +1600,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
@@ -1760,7 +1764,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1768,7 +1772,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -1776,7 +1780,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
@@ -1792,7 +1796,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -1808,7 +1812,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -1816,7 +1820,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
@@ -1832,7 +1836,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
@@ -1840,7 +1844,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
@@ -1848,7 +1852,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>25</v>
       </c>
@@ -1856,7 +1860,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>25</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -1872,7 +1876,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>25</v>
       </c>
@@ -1896,7 +1900,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>25</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>25</v>
       </c>
@@ -1912,7 +1916,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>25</v>
       </c>
@@ -1928,7 +1932,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>25</v>
       </c>
@@ -1944,7 +1948,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>25</v>
       </c>
@@ -1952,7 +1956,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>25</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>25</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>32</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>36</v>
       </c>
@@ -2436,25 +2440,25 @@
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>49</v>
       </c>
@@ -2620,13 +2624,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>57</v>
       </c>
@@ -2704,13 +2708,13 @@
         <v>345</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>61</v>
       </c>
@@ -2772,19 +2776,19 @@
         <v>219</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>67</v>
       </c>
@@ -3046,7 +3050,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>73</v>
       </c>
@@ -3236,7 +3240,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>76</v>
       </c>
@@ -3482,7 +3486,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>84</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>84</v>
       </c>
@@ -3586,7 +3590,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>88</v>
       </c>
@@ -3651,7 +3655,38 @@
   </sheetData>
   <autoFilter ref="A1:B276" xr:uid="{A49E52AF-D615-4580-8F94-DDCBB3E7D289}">
     <filterColumn colId="1">
-      <filters blank="1"/>
+      <filters>
+        <filter val="Carne de cerdo, brazo con hueso"/>
+        <filter val="Carne de cerdo, brazo sin hueso"/>
+        <filter val="Carne de cerdo, cabeza de lomo"/>
+        <filter val="Carne de cerdo, costilla"/>
+        <filter val="Carne de cerdo, espinazo"/>
+        <filter val="Carne de cerdo, lomo con hueso"/>
+        <filter val="Carne de cerdo, lomo sin hueso"/>
+        <filter val="Carne de cerdo, pernil con hueso"/>
+        <filter val="Carne de cerdo, pernil sin hueso"/>
+        <filter val="Carne de cerdo, tocino barriga"/>
+        <filter val="Carne de cerdo, tocino papada"/>
+        <filter val="Carne de res molida, murillo"/>
+        <filter val="Carne de res, bola de brazo"/>
+        <filter val="Carne de res, bola de pierna"/>
+        <filter val="Carne de res, bota"/>
+        <filter val="Carne de res, cadera"/>
+        <filter val="Carne de res, centro de pierna"/>
+        <filter val="Carne de res, chatas"/>
+        <filter val="Carne de res, cogote"/>
+        <filter val="Carne de res, costilla"/>
+        <filter val="Carne de res, falda"/>
+        <filter val="Carne de res, lomo de brazo"/>
+        <filter val="Carne de res, lomo fino"/>
+        <filter val="Carne de res, morrillo"/>
+        <filter val="Carne de res, muchacho"/>
+        <filter val="Carne de res, murillo"/>
+        <filter val="Carne de res, paletero"/>
+        <filter val="Carne de res, pecho"/>
+        <filter val="Carne de res, punta de anca"/>
+        <filter val="Carne de res, sobrebarriga"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Proyecto Interno/Time-series/mapeo_retail_sipsa.xlsx
+++ b/Proyecto Interno/Time-series/mapeo_retail_sipsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/Time-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8B350617-12E7-48A3-8EB9-7DC4E59CA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F5E80C9-4B94-4D30-BADC-812DB9FD1C65}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{8B350617-12E7-48A3-8EB9-7DC4E59CA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C4A464C-402E-47C2-9160-8523630EB8FB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9B8AFAB-AE7C-4ECE-8124-D73A073E0F9D}"/>
   </bookViews>
@@ -1469,11 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0188B28-EF9D-41DB-9815-3D89235996E0}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,7 +1489,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +1497,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +1505,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1514,13 +1513,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1528,7 +1527,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1552,7 +1551,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1560,7 +1559,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1568,7 +1567,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1576,7 +1575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1584,7 +1583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1600,13 +1599,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1614,13 +1613,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1652,7 +1651,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1660,7 +1659,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1668,7 +1667,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -1684,7 +1683,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -1692,7 +1691,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -1700,7 +1699,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1716,7 +1715,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
@@ -1740,7 +1739,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1980,7 +1979,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>26</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>27</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2004,7 +2003,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>27</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>27</v>
       </c>
@@ -2028,7 +2027,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
@@ -2036,7 +2035,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>27</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>27</v>
       </c>
@@ -2052,7 +2051,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>27</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>28</v>
       </c>
@@ -2068,7 +2067,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>28</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>28</v>
       </c>
@@ -2084,7 +2083,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>28</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>28</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>29</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>30</v>
       </c>
@@ -2116,7 +2115,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>31</v>
       </c>
@@ -2124,13 +2123,13 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>33</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>34</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>35</v>
       </c>
@@ -2154,7 +2153,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>35</v>
       </c>
@@ -2162,7 +2161,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>35</v>
       </c>
@@ -2170,7 +2169,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>35</v>
       </c>
@@ -2178,7 +2177,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>35</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>35</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>35</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>35</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>35</v>
       </c>
@@ -2218,7 +2217,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>35</v>
       </c>
@@ -2226,7 +2225,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>35</v>
       </c>
@@ -2234,7 +2233,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>35</v>
       </c>
@@ -2242,7 +2241,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>35</v>
       </c>
@@ -2250,7 +2249,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>35</v>
       </c>
@@ -2258,13 +2257,13 @@
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>37</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>38</v>
       </c>
@@ -2280,7 +2279,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>39</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>39</v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>39</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>39</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>39</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>39</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>40</v>
       </c>
@@ -2336,7 +2335,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>41</v>
       </c>
@@ -2344,7 +2343,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>41</v>
       </c>
@@ -2352,7 +2351,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>42</v>
       </c>
@@ -2360,7 +2359,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>43</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>44</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>44</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>44</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>44</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>44</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>44</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>44</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>44</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>45</v>
       </c>
@@ -2440,31 +2439,31 @@
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>50</v>
       </c>
@@ -2472,7 +2471,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>50</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>51</v>
       </c>
@@ -2488,7 +2487,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>51</v>
       </c>
@@ -2496,7 +2495,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>52</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>52</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>52</v>
       </c>
@@ -2520,7 +2519,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>52</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>52</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>53</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>54</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>54</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>55</v>
       </c>
@@ -2568,7 +2567,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>55</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>55</v>
       </c>
@@ -2584,7 +2583,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>55</v>
       </c>
@@ -2592,7 +2591,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>55</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>55</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>55</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>55</v>
       </c>
@@ -2624,19 +2623,19 @@
         <v>207</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>58</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>58</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>58</v>
       </c>
@@ -2660,7 +2659,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>58</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>59</v>
       </c>
@@ -2676,7 +2675,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>59</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>59</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>59</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>59</v>
       </c>
@@ -2708,19 +2707,19 @@
         <v>345</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>62</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>63</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>63</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>63</v>
       </c>
@@ -2752,7 +2751,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>64</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>64</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>64</v>
       </c>
@@ -2776,25 +2775,25 @@
         <v>219</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>68</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>68</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>68</v>
       </c>
@@ -2818,7 +2817,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>68</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>68</v>
       </c>
@@ -2834,7 +2833,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>69</v>
       </c>
@@ -2842,7 +2841,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>69</v>
       </c>
@@ -2850,7 +2849,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>69</v>
       </c>
@@ -2858,7 +2857,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>69</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>69</v>
       </c>
@@ -2874,7 +2873,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>69</v>
       </c>
@@ -2882,7 +2881,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>69</v>
       </c>
@@ -2890,7 +2889,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>69</v>
       </c>
@@ -2898,7 +2897,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>69</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>69</v>
       </c>
@@ -2914,7 +2913,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>69</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>69</v>
       </c>
@@ -2930,7 +2929,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>69</v>
       </c>
@@ -2938,7 +2937,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>69</v>
       </c>
@@ -2946,7 +2945,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>69</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>69</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>69</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>70</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>70</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>70</v>
       </c>
@@ -2994,7 +2993,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>71</v>
       </c>
@@ -3002,7 +3001,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>71</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>71</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>71</v>
       </c>
@@ -3026,7 +3025,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>71</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>71</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>72</v>
       </c>
@@ -3050,13 +3049,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>74</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>74</v>
       </c>
@@ -3072,7 +3071,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>74</v>
       </c>
@@ -3080,7 +3079,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>74</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>74</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>74</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>74</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>74</v>
       </c>
@@ -3120,7 +3119,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>74</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>75</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>75</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>75</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>75</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>75</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>75</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>75</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>75</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>75</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>75</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>75</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>75</v>
       </c>
@@ -3224,7 +3223,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>75</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>75</v>
       </c>
@@ -3240,13 +3239,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>77</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>77</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>78</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>78</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>78</v>
       </c>
@@ -3286,7 +3285,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>78</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>78</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>78</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>78</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>78</v>
       </c>
@@ -3326,7 +3325,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>78</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>78</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>79</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>79</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>79</v>
       </c>
@@ -3366,7 +3365,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>79</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>79</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>79</v>
       </c>
@@ -3390,7 +3389,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>79</v>
       </c>
@@ -3398,7 +3397,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>80</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>80</v>
       </c>
@@ -3414,7 +3413,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>80</v>
       </c>
@@ -3422,7 +3421,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>80</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>81</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>82</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>82</v>
       </c>
@@ -3454,7 +3453,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>82</v>
       </c>
@@ -3462,7 +3461,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>82</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>82</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>83</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>85</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>85</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>85</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>85</v>
       </c>
@@ -3534,7 +3533,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>85</v>
       </c>
@@ -3542,7 +3541,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>85</v>
       </c>
@@ -3550,7 +3549,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>85</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>85</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>85</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>86</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>87</v>
       </c>
@@ -3590,13 +3589,13 @@
         <v>309</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>89</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>89</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>89</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>89</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>90</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>90</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>90</v>
       </c>
@@ -3653,42 +3652,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B276" xr:uid="{A49E52AF-D615-4580-8F94-DDCBB3E7D289}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Carne de cerdo, brazo con hueso"/>
-        <filter val="Carne de cerdo, brazo sin hueso"/>
-        <filter val="Carne de cerdo, cabeza de lomo"/>
-        <filter val="Carne de cerdo, costilla"/>
-        <filter val="Carne de cerdo, espinazo"/>
-        <filter val="Carne de cerdo, lomo con hueso"/>
-        <filter val="Carne de cerdo, lomo sin hueso"/>
-        <filter val="Carne de cerdo, pernil con hueso"/>
-        <filter val="Carne de cerdo, pernil sin hueso"/>
-        <filter val="Carne de cerdo, tocino barriga"/>
-        <filter val="Carne de cerdo, tocino papada"/>
-        <filter val="Carne de res molida, murillo"/>
-        <filter val="Carne de res, bola de brazo"/>
-        <filter val="Carne de res, bola de pierna"/>
-        <filter val="Carne de res, bota"/>
-        <filter val="Carne de res, cadera"/>
-        <filter val="Carne de res, centro de pierna"/>
-        <filter val="Carne de res, chatas"/>
-        <filter val="Carne de res, cogote"/>
-        <filter val="Carne de res, costilla"/>
-        <filter val="Carne de res, falda"/>
-        <filter val="Carne de res, lomo de brazo"/>
-        <filter val="Carne de res, lomo fino"/>
-        <filter val="Carne de res, morrillo"/>
-        <filter val="Carne de res, muchacho"/>
-        <filter val="Carne de res, murillo"/>
-        <filter val="Carne de res, paletero"/>
-        <filter val="Carne de res, pecho"/>
-        <filter val="Carne de res, punta de anca"/>
-        <filter val="Carne de res, sobrebarriga"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B276" xr:uid="{A49E52AF-D615-4580-8F94-DDCBB3E7D289}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
